--- a/data_output/prism_passive/all_passive_out_elong_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.9577184905240159</v>
+        <v>-1.9577184933227016</v>
       </c>
       <c r="C2">
-        <v>-4.09242082414724</v>
+        <v>-4.0924207853436769</v>
       </c>
       <c r="D2">
-        <v>-4.6802149971421443</v>
+        <v>-4.6802149876256038</v>
       </c>
       <c r="E2">
-        <v>-7.4041544067481482</v>
+        <v>-7.404154387507333</v>
       </c>
       <c r="F2">
-        <v>-17.917076669091514</v>
+        <v>-17.917076654763804</v>
       </c>
       <c r="G2">
-        <v>9.6171820911489476</v>
+        <v>9.6171821262341552</v>
       </c>
       <c r="H2">
-        <v>-5.8778024990304516</v>
+        <v>-5.8778024989460675</v>
       </c>
       <c r="I2">
-        <v>6.446399344280394</v>
+        <v>6.4463993696563477</v>
       </c>
       <c r="J2">
-        <v>3.9372236792059709</v>
+        <v>3.9372236875917679</v>
       </c>
       <c r="K2">
-        <v>-15.375290599404593</v>
+        <v>-15.375290593059518</v>
       </c>
       <c r="L2">
-        <v>5.4906381862427764</v>
+        <v>5.4906381849617247</v>
       </c>
       <c r="N2">
-        <v>-0.26746511032357034</v>
+        <v>-0.26746511918454985</v>
       </c>
       <c r="O2">
-        <v>11.3110052291306</v>
+        <v>11.311005234386627</v>
       </c>
       <c r="P2">
-        <v>-2.0804186439499404</v>
+        <v>-2.0804185854844945</v>
       </c>
       <c r="Q2">
-        <v>-4.515003722980083</v>
+        <v>-4.5150036876885338</v>
       </c>
       <c r="S2">
-        <v>7.3457208051934231</v>
+        <v>7.3457208067578108</v>
       </c>
       <c r="V2">
-        <v>-10.248453666048306</v>
+        <v>-10.248453625765421</v>
       </c>
       <c r="W2">
-        <v>14.690506754985762</v>
+        <v>14.690506790893437</v>
       </c>
       <c r="X2">
-        <v>-2.6415668891088728</v>
+        <v>-2.6415668755846866</v>
       </c>
       <c r="AA2">
-        <v>9.1919613023692364</v>
+        <v>9.1919612940192792</v>
       </c>
       <c r="AB2">
-        <v>-3.102177280935706</v>
+        <v>-3.102177273065081</v>
       </c>
       <c r="AC2">
-        <v>5.4211845184736092</v>
+        <v>5.4211845576148505</v>
       </c>
       <c r="AD2">
-        <v>-9.2531410912650927</v>
+        <v>-9.253141050167585</v>
       </c>
       <c r="AE2">
-        <v>-35.297881480367835</v>
+        <v>-35.297881479092339</v>
       </c>
       <c r="AF2">
-        <v>-3.1148126788259844</v>
+        <v>-3.1148126610190161</v>
       </c>
       <c r="AG2">
-        <v>1.1182116611302462</v>
+        <v>1.118211667418251</v>
       </c>
       <c r="AH2">
-        <v>-2.8105132994109141</v>
+        <v>-2.8105132578817233</v>
       </c>
       <c r="AI2">
-        <v>38.56292190440773</v>
+        <v>38.562921904220843</v>
       </c>
       <c r="AJ2">
-        <v>-2.7946644059681063</v>
+        <v>-2.7946643764088748</v>
       </c>
       <c r="AK2">
-        <v>-2.578407174860331E-2</v>
+        <v>-2.5784061945188341E-2</v>
       </c>
       <c r="AL2">
-        <v>-9.9620714302823359</v>
+        <v>-9.9620713946913497</v>
       </c>
       <c r="AM2">
-        <v>-0.34621560383970973</v>
+        <v>-0.34621561584367555</v>
       </c>
       <c r="AN2">
-        <v>-0.17549646823442799</v>
+        <v>-0.17549645616642806</v>
       </c>
       <c r="AO2">
-        <v>-8.450065523508556</v>
+        <v>-8.4500654912121149</v>
       </c>
       <c r="AQ2">
-        <v>-1.2084314343807705</v>
+        <v>-1.2084314262350233</v>
       </c>
       <c r="AR2">
-        <v>0.726173889885672</v>
+        <v>0.72617389053590387</v>
       </c>
       <c r="AS2">
-        <v>-2.3874427248078405</v>
+        <v>-2.3874426948440828</v>
       </c>
       <c r="AU2">
-        <v>3.5325048058098218E-2</v>
+        <v>3.5325080954521582E-2</v>
       </c>
       <c r="AV2">
-        <v>-3.3745320994996177</v>
+        <v>-3.3745320668070349</v>
       </c>
       <c r="AW2">
-        <v>-2.7060665125311516</v>
+        <v>-2.7060664862437562</v>
       </c>
       <c r="AX2">
-        <v>-6.6342983082822116</v>
+        <v>-6.6342983072010213</v>
       </c>
       <c r="AY2">
-        <v>1.6786283973522842</v>
+        <v>1.6786284337631656</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.9429892993859852</v>
+        <v>2.9429893058607206</v>
       </c>
       <c r="C3">
-        <v>-0.91101971804972948</v>
+        <v>-0.91101970933678444</v>
       </c>
       <c r="E3">
-        <v>-19.885300389230878</v>
+        <v>-19.885300398368713</v>
       </c>
       <c r="F3">
-        <v>7.2855631498969728</v>
+        <v>7.2855631604053315</v>
       </c>
       <c r="G3">
-        <v>0.25697176941349653</v>
+        <v>0.25697177436953211</v>
       </c>
       <c r="H3">
-        <v>2.82093351976539</v>
+        <v>2.8209335345225668</v>
       </c>
       <c r="J3">
-        <v>-0.6913783861486138</v>
+        <v>-0.69137838024529685</v>
       </c>
       <c r="K3">
-        <v>28.989081190056908</v>
+        <v>28.9890812056031</v>
       </c>
       <c r="L3">
-        <v>24.678894747623502</v>
+        <v>24.678894730516944</v>
       </c>
       <c r="M3">
-        <v>-5.7336050396605174</v>
+        <v>-5.7335647512849164</v>
       </c>
       <c r="N3">
-        <v>-0.65749569084402992</v>
+        <v>-0.65749570088564724</v>
       </c>
       <c r="P3">
-        <v>-32.980073459893759</v>
+        <v>-32.980073449376164</v>
       </c>
       <c r="Q3">
-        <v>-5.2400931360748189</v>
+        <v>-5.2400931152093335</v>
       </c>
       <c r="R3">
-        <v>5.6761564026651286</v>
+        <v>5.6761564387349495</v>
       </c>
       <c r="W3">
-        <v>1.2267795011914444</v>
+        <v>1.2267795772827412</v>
       </c>
       <c r="AA3">
-        <v>1.2041664428859633</v>
+        <v>1.2041664770256233</v>
       </c>
       <c r="AB3">
-        <v>-2.0081800168648414</v>
+        <v>-2.0081799983530431</v>
       </c>
       <c r="AC3">
-        <v>0.94870735786949467</v>
+        <v>0.94870737119140358</v>
       </c>
       <c r="AD3">
-        <v>-13.760117788871867</v>
+        <v>-13.760117793912286</v>
       </c>
       <c r="AE3">
-        <v>-5.564309261506537</v>
+        <v>-5.5643092611439613</v>
       </c>
       <c r="AF3">
-        <v>0.26412384258034649</v>
+        <v>0.26412383663958394</v>
       </c>
       <c r="AG3">
-        <v>10.76985499301</v>
+        <v>10.769855002515527</v>
       </c>
       <c r="AH3">
-        <v>7.3579127317961195</v>
+        <v>7.3579127519644771</v>
       </c>
       <c r="AI3">
-        <v>-1.1538950834505357</v>
+        <v>-1.1538950834259936</v>
       </c>
       <c r="AJ3">
-        <v>-0.30075125033887673</v>
+        <v>-0.30075124270452136</v>
       </c>
       <c r="AK3">
-        <v>20.609490577423827</v>
+        <v>20.609490567876833</v>
       </c>
       <c r="AL3">
-        <v>-1.9680798741116519</v>
+        <v>-1.9680798513693389</v>
       </c>
       <c r="AM3">
-        <v>-1.3153831409116492</v>
+        <v>-1.3153831058774017</v>
       </c>
       <c r="AN3">
-        <v>2.7539060453903232</v>
+        <v>2.7539060664816191</v>
       </c>
       <c r="AO3">
-        <v>20.140372154040676</v>
+        <v>20.140372181642391</v>
       </c>
       <c r="AP3">
-        <v>-10.691015026838727</v>
+        <v>-10.691015013383577</v>
       </c>
       <c r="AQ3">
-        <v>-3.9758876513710675</v>
+        <v>-3.9758876199162216</v>
       </c>
       <c r="AS3">
-        <v>1.0222805198383753</v>
+        <v>1.0222805459218591</v>
       </c>
       <c r="AT3">
-        <v>-5.217730725588936</v>
+        <v>-5.2177307001760909</v>
       </c>
       <c r="AU3">
-        <v>-1.6785782603478197</v>
+        <v>-1.6785782359787049</v>
       </c>
       <c r="AV3">
-        <v>-1.2050295661400412</v>
+        <v>-1.2050295283268042</v>
       </c>
       <c r="AW3">
-        <v>-5.5438100096952212</v>
+        <v>-5.5438099855850282</v>
       </c>
       <c r="AX3">
-        <v>-36.242172316294116</v>
+        <v>-36.242172324539325</v>
       </c>
       <c r="AY3">
-        <v>-19.94996523857094</v>
+        <v>-19.949965247026938</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,256 +401,268 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>-1.9577184933227016</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-4.0924207853436769</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-4.6802149876256038</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-7.404154387507333</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-17.917076654763804</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.6171821262341552</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.8778024989460675</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.4463993696563477</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.9372236875917679</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-15.375290593059518</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.4906381849617247</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-0.26746511918454985</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.311005234386627</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-2.0804185854844945</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-4.5150036876885338</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7.3457208067578108</v>
+        <v>7.3457874667578267</v>
       </c>
       <c r="V2">
-        <v>-10.248453625765421</v>
+        <v>-10.248420295765442</v>
       </c>
       <c r="W2">
-        <v>14.690506790893437</v>
+        <v>14.690573450893424</v>
       </c>
       <c r="X2">
-        <v>-2.6415668755846866</v>
+        <v>-2.6416335355847025</v>
       </c>
       <c r="AA2">
-        <v>9.1919612940192792</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-3.102177273065081</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.4211845576148505</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-9.253141050167585</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-35.297881479092339</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-3.1148126610190161</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.118211667418251</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-2.8105132578817233</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>38.562921904220843</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-2.7946643764088748</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-2.5784061945188341E-2</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-9.9620713946913497</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.34621561584367555</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>-0.17549645616642806</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-8.4500654912121149</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-1.2084314262350233</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.72617389053590387</v>
       </c>
       <c r="AS2">
-        <v>-2.3874426948440828</v>
+        <v>-2.3874093648440748</v>
       </c>
       <c r="AU2">
         <v>3.5325080954521582E-2</v>
       </c>
       <c r="AV2">
-        <v>-3.3745320668070349</v>
+        <v>-3.3744987368070554</v>
       </c>
       <c r="AW2">
-        <v>-2.7060664862437562</v>
+        <v>-2.7061331462437721</v>
       </c>
       <c r="AX2">
-        <v>-6.6342983072010213</v>
+        <v>-6.6343649672010088</v>
       </c>
       <c r="AY2">
-        <v>1.6786284337631656</v>
+        <v>1.6785951037631719</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>2.9429893058607206</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.91101970933678444</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-19.885300398368713</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.2855631604053315</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.25697177436953211</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.8209335345225668</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.69137838024529685</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>28.9890812056031</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>24.678894730516944</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-5.7335647512849164</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.65749570088564724</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-32.980073449376164</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-5.2400931152093335</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.6761564387349495</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1.2267795772827412</v>
+        <v>1.2267795772827554</v>
       </c>
       <c r="AA3">
-        <v>1.2041664770256233</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-2.0081799983530431</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.94870737119140358</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-13.760117793912286</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-5.5643092611439613</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.26412383663958394</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>10.769855002515527</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>7.3579127519644771</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-1.1538950834259936</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.30075124270452136</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>20.609490567876833</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-1.9680798513693389</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-1.3153831058774017</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.7539060664816191</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>20.140372181642391</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-10.691015013383577</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-3.9758876199162216</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.0222805459218591</v>
+        <v>1.0222472159218512</v>
       </c>
       <c r="AT3">
-        <v>-5.2177307001760909</v>
+        <v>-5.2176973701760829</v>
       </c>
       <c r="AU3">
         <v>-1.6785782359787049</v>
       </c>
       <c r="AV3">
-        <v>-1.2050295283268042</v>
+        <v>-1.2050961883268201</v>
       </c>
       <c r="AW3">
-        <v>-5.5438099855850282</v>
+        <v>-5.5437766555850203</v>
       </c>
       <c r="AX3">
-        <v>-36.242172324539325</v>
+        <v>-32.068905654539293</v>
       </c>
       <c r="AY3">
-        <v>-19.949965247026938</v>
+        <v>22.470001422973084</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.957651830524</v>
-      </c>
-      <c r="C2">
-        <v>0.67754584585276234</v>
+        <v>11.310938574386626</v>
       </c>
       <c r="D2">
-        <v>-4.6802483271421522</v>
+        <v>-0.17549645616645648</v>
       </c>
       <c r="E2">
-        <v>-14.717487746748162</v>
+        <v>-1.2083980962350438</v>
       </c>
       <c r="F2">
         <v>-17.917043339091506</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2.9429892993859852</v>
-      </c>
       <c r="C3">
-        <v>0.33571361195026839</v>
+        <v>5.6762230987349653</v>
+      </c>
+      <c r="D3">
+        <v>2.7539060664816475</v>
       </c>
       <c r="E3">
-        <v>-19.885300389230849</v>
+        <v>-4.2428102736428741</v>
       </c>
       <c r="F3">
         <v>7.2855298198969649</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.957651830524</v>
+        <v>16.485934880815449</v>
       </c>
       <c r="C2">
-        <v>0.67754584585276234</v>
+        <v>11.310938574386626</v>
       </c>
       <c r="D2">
-        <v>-4.6802483271421522</v>
+        <v>13.177117714156338</v>
       </c>
       <c r="E2">
-        <v>-14.717487746748162</v>
+        <v>-0.17549645616645648</v>
       </c>
       <c r="F2">
         <v>-17.917043339091506</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.9429892993859852</v>
-      </c>
-      <c r="C3">
-        <v>0.33571361195026839</v>
+        <v>34.039170959114387</v>
+      </c>
+      <c r="D3">
+        <v>2.287950224122568</v>
       </c>
       <c r="E3">
-        <v>-19.885300389230849</v>
+        <v>2.7539060664816475</v>
       </c>
       <c r="F3">
         <v>7.2855298198969649</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>-1.9576518333226858</v>
+      </c>
+      <c r="C2">
+        <v>0.67754588465632537</v>
+      </c>
+      <c r="D2">
+        <v>-4.6802483176256118</v>
+      </c>
+      <c r="E2">
+        <v>-14.717487727507347</v>
+      </c>
+      <c r="F2">
+        <v>-17.917043324763796</v>
+      </c>
+      <c r="G2">
+        <v>9.6172487862341427</v>
+      </c>
+      <c r="H2">
+        <v>-5.8778358289460471</v>
+      </c>
+      <c r="I2">
+        <v>6.4463993696563477</v>
+      </c>
+      <c r="J2">
+        <v>3.9372236875917963</v>
+      </c>
+      <c r="K2">
+        <v>5.6680094069404845</v>
+      </c>
+      <c r="L2">
+        <v>5.4907048449617264</v>
+      </c>
+      <c r="N2">
         <v>16.485934880815449</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.310938574386626</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>-2.0804185854844945</v>
+      </c>
+      <c r="Q2">
+        <v>-10.828270347688516</v>
+      </c>
+      <c r="S2">
+        <v>7.3457874667578267</v>
+      </c>
+      <c r="V2">
+        <v>-10.248420295765442</v>
+      </c>
+      <c r="W2">
+        <v>14.690573450893424</v>
+      </c>
+      <c r="X2">
+        <v>-2.6416335355847025</v>
+      </c>
+      <c r="AA2">
+        <v>9.191961294019265</v>
+      </c>
+      <c r="AB2">
+        <v>16.521122726934934</v>
+      </c>
+      <c r="AC2">
+        <v>5.4211178976148631</v>
+      </c>
+      <c r="AD2">
+        <v>-1.7065077101675854</v>
+      </c>
+      <c r="AE2">
+        <v>-35.297881479092339</v>
+      </c>
+      <c r="AF2">
+        <v>-3.1148126610190161</v>
+      </c>
+      <c r="AG2">
+        <v>1.1182449974182589</v>
+      </c>
+      <c r="AH2">
+        <v>-2.8105132578817233</v>
+      </c>
+      <c r="AI2">
+        <v>38.562955234220823</v>
+      </c>
+      <c r="AJ2">
+        <v>-1.004731036408856</v>
+      </c>
+      <c r="AK2">
+        <v>-2.5817391945167856E-2</v>
+      </c>
+      <c r="AL2">
+        <v>-9.9621047246913577</v>
+      </c>
+      <c r="AM2">
         <v>13.177117714156338</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>-0.17549645616645648</v>
       </c>
-      <c r="F2">
-        <v>-17.917043339091506</v>
-      </c>
-      <c r="G2">
-        <v>9.6172487511489351</v>
-      </c>
-      <c r="H2">
-        <v>-5.8778358290304311</v>
-      </c>
-      <c r="I2">
-        <v>6.446399344280394</v>
-      </c>
-      <c r="J2">
-        <v>3.9372236792059994</v>
-      </c>
-      <c r="K2">
-        <v>5.6680094005954089</v>
-      </c>
-      <c r="L2">
-        <v>5.4907048462427781</v>
-      </c>
-      <c r="N2">
-        <v>16.485934889676429</v>
-      </c>
-      <c r="O2">
-        <v>11.310938569130599</v>
-      </c>
-      <c r="P2">
-        <v>-2.0804186439499404</v>
-      </c>
-      <c r="Q2">
-        <v>-10.828270382980065</v>
-      </c>
-      <c r="S2">
-        <v>7.3457874651934389</v>
-      </c>
-      <c r="V2">
-        <v>-10.248420336048326</v>
-      </c>
-      <c r="W2">
-        <v>14.690573414985749</v>
-      </c>
-      <c r="X2">
-        <v>-2.6416335491088887</v>
-      </c>
-      <c r="AA2">
-        <v>9.1919613023692222</v>
-      </c>
-      <c r="AB2">
-        <v>16.521122719064309</v>
-      </c>
-      <c r="AC2">
-        <v>5.4211178584736217</v>
-      </c>
-      <c r="AD2">
-        <v>-1.706507751265093</v>
-      </c>
-      <c r="AE2">
-        <v>-35.297881480367835</v>
-      </c>
-      <c r="AF2">
-        <v>-3.1148126788259844</v>
-      </c>
-      <c r="AG2">
-        <v>1.1182449911302541</v>
-      </c>
-      <c r="AH2">
-        <v>-2.8105132994109141</v>
-      </c>
-      <c r="AI2">
-        <v>38.56295523440771</v>
-      </c>
-      <c r="AJ2">
-        <v>-1.0047310659680875</v>
-      </c>
-      <c r="AK2">
-        <v>-2.5817401748582824E-2</v>
-      </c>
-      <c r="AL2">
-        <v>-9.9621047602823438</v>
-      </c>
-      <c r="AM2">
-        <v>13.177117726160304</v>
-      </c>
-      <c r="AN2">
-        <v>-0.17549646823445642</v>
-      </c>
       <c r="AO2">
-        <v>-8.4500988535085355</v>
+        <v>-8.4500988212120944</v>
       </c>
       <c r="AQ2">
-        <v>-1.208398104380791</v>
+        <v>-1.2083980962350438</v>
       </c>
       <c r="AR2">
-        <v>0.726173889885672</v>
+        <v>0.72617389053590387</v>
       </c>
       <c r="AS2">
-        <v>-2.3874093948078325</v>
+        <v>-2.3874093648440748</v>
       </c>
       <c r="AU2">
-        <v>3.5325048058098218E-2</v>
+        <v>3.5325080954521582E-2</v>
       </c>
       <c r="AV2">
-        <v>-3.3744987694996382</v>
+        <v>-3.3744987368070554</v>
       </c>
       <c r="AW2">
-        <v>-2.7061331725311675</v>
+        <v>-2.7061331462437721</v>
       </c>
       <c r="AX2">
-        <v>-6.634364968282199</v>
+        <v>-6.6343649672010088</v>
       </c>
       <c r="AY2">
-        <v>1.6785950673522905</v>
+        <v>1.6785951037631719</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.9429893058607206</v>
+      </c>
+      <c r="C3">
+        <v>0.33571362066321342</v>
+      </c>
+      <c r="E3">
+        <v>-19.885300398368685</v>
+      </c>
+      <c r="F3">
+        <v>7.2855298304053235</v>
+      </c>
+      <c r="G3">
+        <v>0.25697177436953211</v>
+      </c>
+      <c r="H3">
+        <v>2.8208668745225935</v>
+      </c>
+      <c r="J3">
+        <v>9.8253216197547033</v>
+      </c>
+      <c r="K3">
+        <v>28.9890812056031</v>
+      </c>
+      <c r="L3">
+        <v>24.678861400516936</v>
+      </c>
+      <c r="M3">
+        <v>-5.7335314212849084</v>
+      </c>
+      <c r="N3">
         <v>34.039170959114387</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-32.980040119376156</v>
+      </c>
+      <c r="Q3">
+        <v>-5.240159775209321</v>
+      </c>
+      <c r="R3">
+        <v>5.6762230987349653</v>
+      </c>
+      <c r="W3">
+        <v>1.5145853962864209</v>
+      </c>
+      <c r="AA3">
+        <v>1.2041664770256233</v>
+      </c>
+      <c r="AB3">
+        <v>1.0250866716469602</v>
+      </c>
+      <c r="AC3">
+        <v>0.94870737119140358</v>
+      </c>
+      <c r="AD3">
+        <v>-13.760151123912294</v>
+      </c>
+      <c r="AE3">
+        <v>-5.5643092611439897</v>
+      </c>
+      <c r="AF3">
+        <v>0.26415716663959188</v>
+      </c>
+      <c r="AG3">
+        <v>10.769855002515527</v>
+      </c>
+      <c r="AH3">
+        <v>7.4540460237329853</v>
+      </c>
+      <c r="AI3">
+        <v>0.2127049165740118</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.30071791270451342</v>
+      </c>
+      <c r="AK3">
+        <v>20.609490567876861</v>
+      </c>
+      <c r="AL3">
+        <v>-1.9680798513693389</v>
+      </c>
+      <c r="AM3">
         <v>2.287950224122568</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>2.7539060664816475</v>
       </c>
-      <c r="F3">
-        <v>7.2855298198969649</v>
-      </c>
-      <c r="G3">
-        <v>0.25697176941349653</v>
-      </c>
-      <c r="H3">
-        <v>2.8208668597654167</v>
-      </c>
-      <c r="J3">
-        <v>9.8253216138513864</v>
-      </c>
-      <c r="K3">
-        <v>28.989081190056908</v>
-      </c>
-      <c r="L3">
-        <v>24.678861417623494</v>
-      </c>
-      <c r="M3">
-        <v>-5.7335717096605094</v>
-      </c>
-      <c r="N3">
-        <v>34.039170969156004</v>
-      </c>
-      <c r="P3">
-        <v>-32.980040129893752</v>
-      </c>
-      <c r="Q3">
-        <v>-5.2401597960748063</v>
-      </c>
-      <c r="R3">
-        <v>5.6762230626651444</v>
-      </c>
-      <c r="W3">
-        <v>1.5145853200926069</v>
-      </c>
-      <c r="AA3">
-        <v>1.2041664428859633</v>
-      </c>
-      <c r="AB3">
-        <v>1.0250866531351619</v>
-      </c>
-      <c r="AC3">
-        <v>0.94870735786949467</v>
-      </c>
-      <c r="AD3">
-        <v>-13.760151118871875</v>
-      </c>
-      <c r="AE3">
-        <v>-5.5643092615065655</v>
-      </c>
-      <c r="AF3">
-        <v>0.26415717258035443</v>
-      </c>
-      <c r="AG3">
-        <v>10.76985499301</v>
-      </c>
-      <c r="AH3">
-        <v>7.4540460151463037</v>
-      </c>
-      <c r="AI3">
-        <v>0.21270491654946966</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.30071792033886879</v>
-      </c>
-      <c r="AK3">
-        <v>20.609490577423855</v>
-      </c>
-      <c r="AL3">
-        <v>-1.9680798741116519</v>
-      </c>
-      <c r="AM3">
-        <v>2.2879501890883205</v>
-      </c>
-      <c r="AN3">
-        <v>2.7539060453903517</v>
-      </c>
       <c r="AO3">
-        <v>20.140405484040656</v>
+        <v>20.140405511642371</v>
       </c>
       <c r="AP3">
-        <v>-10.691081686838714</v>
+        <v>-10.691081673383565</v>
       </c>
       <c r="AQ3">
-        <v>-4.2428103172755982</v>
+        <v>-4.2428102736428741</v>
       </c>
       <c r="AS3">
-        <v>1.0222471898383674</v>
+        <v>1.0222472159218512</v>
       </c>
       <c r="AT3">
-        <v>-5.2176973955889281</v>
+        <v>-5.2176973701760829</v>
       </c>
       <c r="AU3">
-        <v>-1.6785782603478197</v>
+        <v>-1.6785782359787049</v>
       </c>
       <c r="AV3">
-        <v>-1.2050962261400571</v>
+        <v>-1.2050961883268201</v>
       </c>
       <c r="AW3">
-        <v>-5.5437766796952133</v>
+        <v>-5.5437766555850203</v>
       </c>
       <c r="AX3">
-        <v>-32.068905646294084</v>
+        <v>-32.068905654539293</v>
       </c>
       <c r="AY3">
-        <v>22.470001431429083</v>
+        <v>22.470001422973084</v>
       </c>
     </row>
   </sheetData>
